--- a/results/artaxata/data/loi_AA.xlsx
+++ b/results/artaxata/data/loi_AA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\artaxata\data\loi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\artaxata\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E15D0B-A15E-4C72-B33A-7343F7CD21C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258B6BD0-2D07-48CA-A825-697B1073497D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="705" windowWidth="20070" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10155" yWindow="0" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,21 +42,6 @@
     <t>crucible</t>
   </si>
   <si>
-    <t>wet weight</t>
-  </si>
-  <si>
-    <t>sample wet</t>
-  </si>
-  <si>
-    <t>dry weight</t>
-  </si>
-  <si>
-    <t>after 550 C</t>
-  </si>
-  <si>
-    <t>after 950 C</t>
-  </si>
-  <si>
     <t>AA-1</t>
   </si>
   <si>
@@ -85,6 +70,21 @@
   </si>
   <si>
     <t>AA-10</t>
+  </si>
+  <si>
+    <t>wet_weight</t>
+  </si>
+  <si>
+    <t>sample_wet</t>
+  </si>
+  <si>
+    <t>dry_weight</t>
+  </si>
+  <si>
+    <t>after_550_C</t>
+  </si>
+  <si>
+    <t>after_950_C</t>
   </si>
 </sst>
 </file>
@@ -353,7 +353,7 @@
   <dimension ref="A1:I892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -376,25 +376,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>8.7993000000000006</v>
@@ -418,7 +418,7 @@
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>9.2055000000000007</v>
@@ -442,7 +442,7 @@
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>9.1417000000000002</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>8.3475999999999999</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>8.2972000000000001</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>9.8901000000000003</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>8.0657999999999994</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>9.0791000000000004</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>9.1842000000000006</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>8.9110999999999994</v>
